--- a/data_year/zb/金融业/原保险保费收入和赔付支出情况.xlsx
+++ b/data_year/zb/金融业/原保险保费收入和赔付支出情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,351 +468,322 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50380234.66</v>
+        <v>106323300</v>
       </c>
       <c r="C2" t="n">
-        <v>12447445.92</v>
+        <v>14444000</v>
       </c>
       <c r="D2" t="n">
-        <v>70357598.09</v>
+        <v>145279700</v>
       </c>
       <c r="E2" t="n">
-        <v>22652149.38</v>
+        <v>32004300</v>
       </c>
       <c r="F2" t="n">
-        <v>19977363.42</v>
+        <v>38956400</v>
       </c>
       <c r="G2" t="n">
-        <v>10204703.46</v>
+        <v>17560300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74475273.87</v>
+        <v>97214300</v>
       </c>
       <c r="C3" t="n">
-        <v>15528335.26</v>
+        <v>17424400</v>
       </c>
       <c r="D3" t="n">
-        <v>97842371.65000001</v>
+        <v>143392500</v>
       </c>
       <c r="E3" t="n">
-        <v>29711659.83</v>
+        <v>39293700</v>
       </c>
       <c r="F3" t="n">
-        <v>23367097.78</v>
+        <v>46178200</v>
       </c>
       <c r="G3" t="n">
-        <v>14183324.57</v>
+        <v>21869300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82614653.76000001</v>
+        <v>101570024.62</v>
       </c>
       <c r="C4" t="n">
-        <v>15496981.68</v>
+        <v>18999868.23</v>
       </c>
       <c r="D4" t="n">
-        <v>111372989.22</v>
+        <v>154879298.09</v>
       </c>
       <c r="E4" t="n">
-        <v>31254826.89</v>
+        <v>47163184.6</v>
       </c>
       <c r="F4" t="n">
-        <v>28758335.46</v>
+        <v>53309273.47</v>
       </c>
       <c r="G4" t="n">
-        <v>15757845.21</v>
+        <v>28163316.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106323300</v>
+        <v>110099800</v>
       </c>
       <c r="C5" t="n">
-        <v>14444000</v>
+        <v>27737700</v>
       </c>
       <c r="D5" t="n">
-        <v>145279700</v>
+        <v>172222400</v>
       </c>
       <c r="E5" t="n">
-        <v>32004300</v>
+        <v>62129000</v>
       </c>
       <c r="F5" t="n">
-        <v>38956400</v>
+        <v>62122600</v>
       </c>
       <c r="G5" t="n">
-        <v>17560300</v>
+        <v>34391400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97214300</v>
+        <v>130314300</v>
       </c>
       <c r="C6" t="n">
-        <v>17424400</v>
+        <v>34280000</v>
       </c>
       <c r="D6" t="n">
-        <v>143392500</v>
+        <v>202348100</v>
       </c>
       <c r="E6" t="n">
-        <v>39293700</v>
+        <v>72162100</v>
       </c>
       <c r="F6" t="n">
-        <v>46178200</v>
+        <v>72033800</v>
       </c>
       <c r="G6" t="n">
-        <v>21869300</v>
+        <v>37882100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101570024.62</v>
+        <v>162875500</v>
       </c>
       <c r="C7" t="n">
-        <v>18999868.23</v>
+        <v>44799700</v>
       </c>
       <c r="D7" t="n">
-        <v>154879298.09</v>
+        <v>242825200</v>
       </c>
       <c r="E7" t="n">
-        <v>47163184.6</v>
+        <v>86741400</v>
       </c>
       <c r="F7" t="n">
-        <v>53309273.47</v>
+        <v>79949700</v>
       </c>
       <c r="G7" t="n">
-        <v>28163316.38</v>
+        <v>41941700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110099800</v>
+        <v>221799857.06</v>
       </c>
       <c r="C8" t="n">
-        <v>27737700</v>
+        <v>57861951.84</v>
       </c>
       <c r="D8" t="n">
-        <v>172222400</v>
+        <v>309041519.95</v>
       </c>
       <c r="E8" t="n">
-        <v>62129000</v>
+        <v>105156788.21</v>
       </c>
       <c r="F8" t="n">
-        <v>62122600</v>
+        <v>87241662.90000001</v>
       </c>
       <c r="G8" t="n">
-        <v>34391400</v>
+        <v>47294836.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130314300</v>
+        <v>267431950.94</v>
       </c>
       <c r="C9" t="n">
-        <v>34280000</v>
+        <v>60922678.3</v>
       </c>
       <c r="D9" t="n">
-        <v>202348100</v>
+        <v>365777674.35</v>
       </c>
       <c r="E9" t="n">
-        <v>72162100</v>
+        <v>111783572.92</v>
       </c>
       <c r="F9" t="n">
-        <v>72033800</v>
+        <v>98345723.40000001</v>
       </c>
       <c r="G9" t="n">
-        <v>37882100</v>
+        <v>50860894.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162875500</v>
+        <v>272427028.871367</v>
       </c>
       <c r="C10" t="n">
-        <v>44799700</v>
+        <v>63998768.651243</v>
       </c>
       <c r="D10" t="n">
-        <v>242825200</v>
+        <v>380133897.590063</v>
       </c>
       <c r="E10" t="n">
-        <v>86741400</v>
+        <v>122970026.651788</v>
       </c>
       <c r="F10" t="n">
-        <v>79949700</v>
+        <v>107706868.718696</v>
       </c>
       <c r="G10" t="n">
-        <v>41941700</v>
+        <v>58971258.000545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>221799857.06</v>
+        <v>309952844.66</v>
       </c>
       <c r="C11" t="n">
-        <v>57861951.84</v>
+        <v>63923543.98</v>
       </c>
       <c r="D11" t="n">
-        <v>309041519.95</v>
+        <v>426448000</v>
       </c>
       <c r="E11" t="n">
-        <v>105156788.21</v>
+        <v>128940000</v>
       </c>
       <c r="F11" t="n">
-        <v>87241662.90000001</v>
+        <v>116494686.2</v>
       </c>
       <c r="G11" t="n">
-        <v>47294836.38</v>
+        <v>65016177.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>267431950.94</v>
+        <v>333287613.727077</v>
       </c>
       <c r="C12" t="n">
-        <v>60922678.3</v>
+        <v>69523106.45894399</v>
       </c>
       <c r="D12" t="n">
-        <v>365777674.35</v>
+        <v>452573384.735757</v>
       </c>
       <c r="E12" t="n">
-        <v>111783572.92</v>
+        <v>139071033.226612</v>
       </c>
       <c r="F12" t="n">
-        <v>98345723.40000001</v>
+        <v>119285771.00868</v>
       </c>
       <c r="G12" t="n">
-        <v>50860894.62</v>
+        <v>69547926.76766799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>272427028.871367</v>
+        <v>332290550.893184</v>
       </c>
       <c r="C13" t="n">
-        <v>63998768.651243</v>
+        <v>79211415.315769</v>
       </c>
       <c r="D13" t="n">
-        <v>380133897.590063</v>
+        <v>449001668.215651</v>
       </c>
       <c r="E13" t="n">
-        <v>122970026.651788</v>
+        <v>156086389.081515</v>
       </c>
       <c r="F13" t="n">
-        <v>107706868.718696</v>
+        <v>116711117.322467</v>
       </c>
       <c r="G13" t="n">
-        <v>58971258.000545</v>
+        <v>76874973.765746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>309952844.66</v>
-      </c>
-      <c r="C14" t="n">
-        <v>63923543.98</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>426448000</v>
+        <v>469570000</v>
       </c>
       <c r="E14" t="n">
-        <v>128940000</v>
+        <v>154850000</v>
       </c>
       <c r="F14" t="n">
-        <v>116494686.2</v>
+        <v>127120000</v>
       </c>
       <c r="G14" t="n">
-        <v>65016177.31</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>333287613.727077</v>
-      </c>
-      <c r="C15" t="n">
-        <v>69523106.45894399</v>
-      </c>
-      <c r="D15" t="n">
-        <v>452573384.735757</v>
-      </c>
-      <c r="E15" t="n">
-        <v>139071033.226612</v>
-      </c>
-      <c r="F15" t="n">
-        <v>119285771.00868</v>
-      </c>
-      <c r="G15" t="n">
-        <v>69547926.76766799</v>
+        <v>77570000</v>
       </c>
     </row>
   </sheetData>
